--- a/quant_cleaning_info.xlsx
+++ b/quant_cleaning_info.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="454">
   <si>
     <t>opus</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Bach/Fugue/bwv_862</t>
   </si>
   <si>
+    <t>a bar was splitted in 2 half bar in the score</t>
+  </si>
+  <si>
+    <t>I modified the score</t>
+  </si>
+  <si>
     <t>Bach/Fugue/bwv_863</t>
   </si>
   <si>
@@ -211,13 +217,22 @@
     <t>Bach/Prelude/bwv_858</t>
   </si>
   <si>
-    <t>Unable to display the MusicXML due to incomplete measures. Apart the last measure, everything is OK</t>
+    <t>midi annotated in 4/4 instead of 12/16, score bad written with incomplete measures</t>
+  </si>
+  <si>
+    <t>Wrong score, reexported with finale</t>
   </si>
   <si>
     <t>Bach/Prelude/bwv_860</t>
   </si>
   <si>
-    <t>Last measure as usual</t>
+    <t>24/16</t>
+  </si>
+  <si>
+    <t>was annotated in 4/4 instead of 24/16, had to redownload a correct version and manually change it</t>
+  </si>
+  <si>
+    <t>Both finale and musescore don't recognise the complete measure in 24/16 even if it's correct</t>
   </si>
   <si>
     <t>Bach/Prelude/bwv_862</t>
@@ -586,6 +601,9 @@
     <t>4/4, 3/4</t>
   </si>
   <si>
+    <t>first part is sort of rubato. Eventhe score does not have the right bar length</t>
+  </si>
+  <si>
     <t>Beethoven/Piano_Sonatas/3-1</t>
   </si>
   <si>
@@ -598,6 +616,12 @@
     <t>Beethoven/Piano_Sonatas/30-1</t>
   </si>
   <si>
+    <t>rubato in the 3/4 parts</t>
+  </si>
+  <si>
+    <t>rubato beats marked as bR</t>
+  </si>
+  <si>
     <t>Beethoven/Piano_Sonatas/31-1</t>
   </si>
   <si>
@@ -631,6 +655,9 @@
     <t>9/16, 6/16, 12/32</t>
   </si>
   <si>
+    <t>incorrect music notation with 5/32 counting as 1/16. (score picture in folder)</t>
+  </si>
+  <si>
     <t>Beethoven/Piano_Sonatas/4-1</t>
   </si>
   <si>
@@ -650,6 +677,9 @@
   </si>
   <si>
     <t>Beethoven/Piano_Sonatas/7-3</t>
+  </si>
+  <si>
+    <t>problem with "da capo al fine". It was not stopping at fine, so I deleted the last part of the MIDI</t>
   </si>
   <si>
     <t>unaligned even without tempo changes :/</t>
@@ -1124,6 +1154,9 @@
     <t>Chopin/Sonata_2/2nd_no_repeat</t>
   </si>
   <si>
+    <t>trillos make some bar exceed the duration and generate extra beat (did not correct the bar, only the beats)</t>
+  </si>
+  <si>
     <t>Chopin/Sonata_2/3rd</t>
   </si>
   <si>
@@ -1166,22 +1199,13 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">score was wrong, with many extra rest measure in the middle. Musescore was crashing, had to edit first with finale. </t>
+    </r>
+    <r>
       <rPr>
-        <color rgb="FFCC0000"/>
+        <color rgb="FFFF0000"/>
       </rPr>
-      <t>beats 2x too fast</t>
-    </r>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFCC0000"/>
-      </rPr>
-      <t xml:space="preserve"> 3 very long silences in MIDI</t>
-    </r>
-    <r>
-      <t>.</t>
+      <t>Still many things to correct in the score. The original is also not so clear</t>
     </r>
   </si>
   <si>
@@ -1327,6 +1351,9 @@
     <t>6/8, 9/8, 2/4</t>
   </si>
   <si>
+    <t>usual 6/8 db problem, missing last db</t>
+  </si>
+  <si>
     <t>Liszt/Gran_Etudes_de_Paganini/2_La_campanella</t>
   </si>
   <si>
@@ -1339,13 +1366,45 @@
     <t>Liszt/Gran_Etudes_de_Paganini/6_Theme_and_Variations</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>score with some (small) problems.</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF38761D"/>
+      </rPr>
+      <t xml:space="preserve">Still a very good example for the rhythmic trascr </t>
+    </r>
+  </si>
+  <si>
     <t>Liszt/Hungarian_Rhapsodies/6</t>
   </si>
   <si>
+    <t>Lots of problem with embellishement and long liteless measures</t>
+  </si>
+  <si>
+    <t>orig. score not formally correct (e.g. many 3/8 measures of 2/4)</t>
+  </si>
+  <si>
     <t>Liszt/Mephisto_Waltz</t>
   </si>
   <si>
+    <t>3/8, 2/4</t>
+  </si>
+  <si>
+    <t>many many problems from the score bad formatting</t>
+  </si>
+  <si>
     <t>Liszt/Sonata</t>
+  </si>
+  <si>
+    <t>4/4, 6/4, 3/4, 2/2, 3/2</t>
   </si>
   <si>
     <t>Liszt/Transcendental_Etudes/1</t>
@@ -1377,17 +1436,6 @@
     <t>Liszt/Transcendental_Etudes/11</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FFCC0000"/>
-      </rPr>
-      <t>many shifts. tried to fix but gave up</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> (Audacity crashed)</t>
-    </r>
-  </si>
-  <si>
     <t>Liszt/Transcendental_Etudes/3</t>
   </si>
   <si>
@@ -1432,6 +1480,12 @@
     <t>Mozart/Fantasie_475</t>
   </si>
   <si>
+    <t>a big cadenza not in time  generated extra beats</t>
+  </si>
+  <si>
+    <t>Score not formally correct (measure lenght is not correct)</t>
+  </si>
+  <si>
     <t>Mozart/Piano_Sonatas/11-3</t>
   </si>
   <si>
@@ -1535,6 +1589,12 @@
     <t>Ravel/Jeux_deau</t>
   </si>
   <si>
+    <t>4/4, 2/4</t>
+  </si>
+  <si>
+    <t>3 staves score?</t>
+  </si>
+  <si>
     <t>Ravel/Miroirs/3_Une_Barque</t>
   </si>
   <si>
@@ -1556,7 +1616,7 @@
     <t>Schubert/Impromptu_op.90_D.899/1</t>
   </si>
   <si>
-    <t>very weird: the midi in audacity have an offset wrt the audio produced from the midi in python</t>
+    <t>beats unaligned, too many at the end</t>
   </si>
   <si>
     <t>Schubert/Impromptu_op.90_D.899/2</t>
@@ -1635,32 +1695,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <strike/>
-      </rPr>
-      <t>wrong score ts in the last part</t>
-    </r>
-    <r>
-      <t>.</t>
+      <t>wrong score ts in the last part.</t>
     </r>
     <r>
       <rPr>
         <color rgb="FFCC0000"/>
       </rPr>
-      <t xml:space="preserve"> It seems that  there is a tempo problem in the markers/audio, especially after "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <color rgb="FFCC0000"/>
-      </rPr>
-      <t>etwas langsammer</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFCC0000"/>
-      </rPr>
-      <t>"</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <t>Problems with repetitions</t>
     </r>
   </si>
   <si>
@@ -1753,7 +1797,7 @@
     <t>12/8, 6/8</t>
   </si>
   <si>
-    <t>shift audio / midi</t>
+    <t>there is a 6/8 measure in the original score, even if we are in 12/8 (The last of the 12/8 section)</t>
   </si>
   <si>
     <t>Schumann/Kreisleriana/7</t>
@@ -1787,7 +1831,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1800,6 +1844,10 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF434343"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1829,13 +1877,24 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FFFF0000"/>
+    </font>
     <font>
       <color rgb="FFCC0000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FF980000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFCC0000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1878,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1901,33 +1960,51 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2152,8 +2229,8 @@
     <col customWidth="1" min="4" max="4" width="14.75"/>
     <col customWidth="1" min="5" max="5" width="16.63"/>
     <col customWidth="1" min="6" max="6" width="26.25"/>
-    <col customWidth="1" min="7" max="7" width="73.75"/>
-    <col customWidth="1" min="8" max="8" width="48.13"/>
+    <col customWidth="1" min="7" max="7" width="83.0"/>
+    <col customWidth="1" min="8" max="8" width="66.25"/>
     <col customWidth="1" min="9" max="26" width="7.63"/>
   </cols>
   <sheetData>
@@ -2362,7 +2439,7 @@
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="b">
+      <c r="C9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="b">
@@ -2373,6 +2450,12 @@
       </c>
       <c r="F9" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I9" s="5" t="b">
         <v>0</v>
@@ -2383,7 +2466,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="b">
         <v>1</v>
@@ -2406,7 +2489,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="b">
         <v>1</v>
@@ -2418,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="b">
         <v>0</v>
@@ -2429,7 +2512,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="b">
         <v>1</v>
@@ -2452,7 +2535,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="b">
         <v>1</v>
@@ -2464,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I13" s="5" t="b">
         <v>0</v>
@@ -2475,7 +2558,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="b">
         <v>1</v>
@@ -2487,15 +2570,15 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="5" t="b">
+        <v>32</v>
+      </c>
+      <c r="I14" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2504,7 +2587,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="b">
         <v>1</v>
@@ -2527,7 +2610,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="b">
         <v>1</v>
@@ -2539,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I16" s="5" t="b">
         <v>0</v>
@@ -2550,7 +2633,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="b">
         <v>1</v>
@@ -2562,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I17" s="5" t="b">
         <v>0</v>
@@ -2579,7 +2662,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4" t="b">
         <v>1</v>
@@ -2591,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I18" s="5" t="b">
         <v>0</v>
@@ -2602,7 +2685,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="b">
         <v>1</v>
@@ -2625,7 +2708,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4" t="b">
         <v>1</v>
@@ -2637,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2648,7 +2731,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4" t="b">
         <v>1</v>
@@ -2660,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I21" s="5" t="b">
         <v>0</v>
@@ -2677,7 +2760,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="b">
         <v>1</v>
@@ -2700,7 +2783,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="4" t="b">
         <v>1</v>
@@ -2723,7 +2806,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4" t="b">
         <v>1</v>
@@ -2735,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I24" s="5" t="b">
         <v>0</v>
@@ -2746,7 +2829,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="4" t="b">
         <v>1</v>
@@ -2761,7 +2844,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I25" s="5" t="b">
         <v>0</v>
@@ -2772,7 +2855,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4" t="b">
         <v>1</v>
@@ -2795,7 +2878,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" s="4" t="b">
         <v>1</v>
@@ -2818,7 +2901,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4" t="b">
         <v>1</v>
@@ -2830,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I28" s="5" t="b">
         <v>0</v>
@@ -2841,7 +2924,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="b">
         <v>1</v>
@@ -2853,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I29" s="5" t="b">
         <v>0</v>
@@ -2864,7 +2947,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30" s="4" t="b">
         <v>1</v>
@@ -2887,7 +2970,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" s="4" t="b">
         <v>1</v>
@@ -2899,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I31" s="5" t="b">
         <v>0</v>
@@ -2910,7 +2993,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="b">
         <v>1</v>
@@ -2933,7 +3016,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33" s="4" t="b">
         <v>1</v>
@@ -2948,7 +3031,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I33" s="5" t="b">
         <v>0</v>
@@ -2959,7 +3042,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="b">
         <v>1</v>
@@ -2971,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="I34" s="5" t="b">
         <v>0</v>
@@ -2985,22 +3068,22 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>62</v>
+      <c r="G35" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="I35" s="5" t="b">
         <v>0</v>
@@ -3011,7 +3094,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4" t="b">
         <v>1</v>
@@ -3026,7 +3109,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I36" s="5" t="b">
         <v>0</v>
@@ -3037,7 +3120,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4" t="b">
         <v>1</v>
@@ -3049,10 +3132,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="I37" s="5" t="b">
         <v>0</v>
@@ -3063,7 +3149,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4" t="b">
         <v>1</v>
@@ -3075,10 +3161,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="I38" s="5" t="b">
         <v>0</v>
@@ -3089,7 +3178,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C39" s="4" t="b">
         <v>1</v>
@@ -3101,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I39" s="5" t="b">
         <v>0</v>
@@ -3115,7 +3204,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C40" s="4" t="b">
         <v>1</v>
@@ -3130,7 +3219,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I40" s="5" t="b">
         <v>0</v>
@@ -3141,7 +3230,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4" t="b">
         <v>1</v>
@@ -3156,7 +3245,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I41" s="5" t="b">
         <v>0</v>
@@ -3167,7 +3256,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C42" s="4" t="b">
         <v>1</v>
@@ -3179,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I42" s="5" t="b">
         <v>0</v>
@@ -3193,7 +3282,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C43" s="4" t="b">
         <v>1</v>
@@ -3208,7 +3297,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I43" s="5" t="b">
         <v>0</v>
@@ -3219,7 +3308,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C44" s="4" t="b">
         <v>1</v>
@@ -3234,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I44" s="5" t="b">
         <v>0</v>
@@ -3245,7 +3334,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C45" s="4" t="b">
         <v>1</v>
@@ -3260,7 +3349,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I45" s="5" t="b">
         <v>0</v>
@@ -3271,7 +3360,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C46" s="4" t="b">
         <v>1</v>
@@ -3286,7 +3375,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I46" s="5" t="b">
         <v>0</v>
@@ -3297,7 +3386,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C47" s="4" t="b">
         <v>1</v>
@@ -3309,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>85</v>
+        <v>25</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="I47" s="5" t="b">
         <v>0</v>
@@ -3323,7 +3412,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C48" s="4" t="b">
         <v>1</v>
@@ -3335,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I48" s="5" t="b">
         <v>0</v>
@@ -3349,7 +3438,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C49" s="4" t="b">
         <v>1</v>
@@ -3361,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I49" s="5" t="b">
         <v>0</v>
@@ -3375,7 +3464,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C50" s="4" t="b">
         <v>1</v>
@@ -3387,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I50" s="5" t="b">
         <v>0</v>
@@ -3401,7 +3490,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C51" s="4" t="b">
         <v>1</v>
@@ -3413,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I51" s="5" t="b">
         <v>0</v>
@@ -3427,7 +3516,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C52" s="4" t="b">
         <v>1</v>
@@ -3439,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I52" s="5" t="b">
         <v>0</v>
@@ -3453,7 +3542,7 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C53" s="4" t="b">
         <v>1</v>
@@ -3465,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I53" s="5" t="b">
         <v>0</v>
@@ -3479,7 +3568,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C54" s="4" t="b">
         <v>1</v>
@@ -3494,7 +3583,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I54" s="5" t="b">
         <v>0</v>
@@ -3505,7 +3594,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C55" s="4" t="b">
         <v>1</v>
@@ -3520,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I55" s="5" t="b">
         <v>0</v>
@@ -3531,7 +3620,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C56" s="4" t="b">
         <v>1</v>
@@ -3543,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="I56" s="5" t="b">
         <v>0</v>
@@ -3557,7 +3646,7 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C57" s="4" t="b">
         <v>1</v>
@@ -3572,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I57" s="5" t="b">
         <v>0</v>
@@ -3583,7 +3672,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C58" s="4" t="b">
         <v>1</v>
@@ -3595,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I58" s="5" t="b">
         <v>0</v>
@@ -3609,7 +3698,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C59" s="4" t="b">
         <v>1</v>
@@ -3624,7 +3713,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I59" s="5" t="b">
         <v>0</v>
@@ -3635,7 +3724,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C60" s="4" t="b">
         <v>1</v>
@@ -3647,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I60" s="5" t="b">
         <v>0</v>
@@ -3661,7 +3750,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C61" s="5" t="b">
         <v>0</v>
@@ -3672,7 +3761,7 @@
       <c r="E61" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F61" s="10"/>
+      <c r="F61" s="11"/>
       <c r="I61" s="5" t="b">
         <v>0</v>
       </c>
@@ -3682,7 +3771,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C62" s="4" t="b">
         <v>1</v>
@@ -3694,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I62" s="5" t="b">
         <v>0</v>
@@ -3708,7 +3797,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C63" s="4" t="b">
         <v>1</v>
@@ -3720,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I63" s="5" t="b">
         <v>0</v>
@@ -3734,7 +3823,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C64" s="4" t="b">
         <v>1</v>
@@ -3749,7 +3838,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I64" s="5" t="b">
         <v>0</v>
@@ -3760,7 +3849,7 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C65" s="4" t="b">
         <v>1</v>
@@ -3772,10 +3861,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I65" s="5" t="b">
         <v>0</v>
@@ -3786,7 +3875,7 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C66" s="4" t="b">
         <v>1</v>
@@ -3798,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I66" s="5" t="b">
         <v>0</v>
@@ -3812,7 +3901,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C67" s="4" t="b">
         <v>1</v>
@@ -3824,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I67" s="5" t="b">
         <v>0</v>
@@ -3838,9 +3927,9 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="11" t="b">
+        <v>122</v>
+      </c>
+      <c r="C68" s="12" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="5" t="b">
@@ -3853,7 +3942,7 @@
         <v>14</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I68" s="5" t="b">
         <v>0</v>
@@ -3864,7 +3953,7 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C69" s="4" t="b">
         <v>1</v>
@@ -3872,11 +3961,11 @@
       <c r="D69" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E69" s="11" t="b">
+      <c r="E69" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I69" s="4" t="b">
         <v>0</v>
@@ -3887,7 +3976,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C70" s="4" t="b">
         <v>1</v>
@@ -3895,7 +3984,7 @@
       <c r="D70" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E70" s="11" t="b">
+      <c r="E70" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -3910,7 +3999,7 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C71" s="4" t="b">
         <v>1</v>
@@ -3918,14 +4007,14 @@
       <c r="D71" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E71" s="11" t="b">
+      <c r="E71" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I71" s="4" t="b">
         <v>0</v>
@@ -3936,7 +4025,7 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C72" s="4" t="b">
         <v>1</v>
@@ -3944,14 +4033,14 @@
       <c r="D72" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E72" s="11" t="b">
+      <c r="E72" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I72" s="4" t="b">
         <v>0</v>
@@ -3962,7 +4051,7 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C73" s="4" t="b">
         <v>1</v>
@@ -3974,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I73" s="5" t="b">
         <v>0</v>
@@ -3988,7 +4077,7 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C74" s="4" t="b">
         <v>1</v>
@@ -4000,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I74" s="5" t="b">
         <v>0</v>
@@ -4014,7 +4103,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C75" s="4" t="b">
         <v>1</v>
@@ -4029,10 +4118,10 @@
         <v>9</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="I75" s="5" t="b">
         <v>0</v>
@@ -4043,7 +4132,7 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C76" s="4" t="b">
         <v>1</v>
@@ -4058,10 +4147,10 @@
         <v>9</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="I76" s="5" t="b">
         <v>0</v>
@@ -4072,7 +4161,7 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C77" s="4" t="b">
         <v>1</v>
@@ -4084,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I77" s="5" t="b">
         <v>0</v>
@@ -4098,7 +4187,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C78" s="4" t="b">
         <v>1</v>
@@ -4113,7 +4202,7 @@
         <v>14</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I78" s="5" t="b">
         <v>0</v>
@@ -4124,7 +4213,7 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C79" s="4" t="b">
         <v>1</v>
@@ -4136,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I79" s="5" t="b">
         <v>0</v>
@@ -4147,7 +4236,7 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="b">
         <v>1</v>
@@ -4159,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I80" s="5" t="b">
         <v>0</v>
@@ -4173,7 +4262,7 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C81" s="4" t="b">
         <v>1</v>
@@ -4185,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I81" s="5" t="b">
         <v>0</v>
@@ -4199,7 +4288,7 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C82" s="4" t="b">
         <v>1</v>
@@ -4211,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I82" s="5" t="b">
         <v>0</v>
@@ -4225,7 +4314,7 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C83" s="4" t="b">
         <v>1</v>
@@ -4240,7 +4329,7 @@
         <v>18</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I83" s="5" t="b">
         <v>0</v>
@@ -4251,7 +4340,7 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C84" s="4" t="b">
         <v>1</v>
@@ -4263,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I84" s="5" t="b">
         <v>0</v>
@@ -4277,7 +4366,7 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C85" s="4" t="b">
         <v>1</v>
@@ -4292,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I85" s="5" t="b">
         <v>0</v>
@@ -4303,7 +4392,7 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C86" s="4" t="b">
         <v>1</v>
@@ -4318,7 +4407,7 @@
         <v>9</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I86" s="5" t="b">
         <v>0</v>
@@ -4329,7 +4418,7 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C87" s="4" t="b">
         <v>1</v>
@@ -4344,7 +4433,7 @@
         <v>18</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I87" s="5" t="b">
         <v>0</v>
@@ -4355,7 +4444,7 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C88" s="4" t="b">
         <v>1</v>
@@ -4367,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="I88" s="5" t="b">
         <v>0</v>
@@ -4384,7 +4473,7 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C89" s="4" t="b">
         <v>1</v>
@@ -4396,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="14" t="s">
-        <v>156</v>
+        <v>28</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="I89" s="5" t="b">
         <v>0</v>
@@ -4410,7 +4499,7 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C90" s="4" t="b">
         <v>1</v>
@@ -4422,13 +4511,13 @@
         <v>0</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>158</v>
+        <v>144</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="I90" s="5" t="b">
         <v>0</v>
@@ -4439,7 +4528,7 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C91" s="4" t="b">
         <v>1</v>
@@ -4451,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I91" s="5" t="b">
         <v>0</v>
@@ -4465,7 +4554,7 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C92" s="4" t="b">
         <v>1</v>
@@ -4477,13 +4566,13 @@
         <v>1</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I92" s="4" t="b">
         <v>1</v>
@@ -4494,7 +4583,7 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C93" s="4" t="b">
         <v>1</v>
@@ -4506,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="I93" s="5" t="b">
         <v>0</v>
@@ -4520,7 +4609,7 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C94" s="4" t="b">
         <v>1</v>
@@ -4532,12 +4621,12 @@
         <v>1</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H94" s="14"/>
+        <v>173</v>
+      </c>
+      <c r="H94" s="15"/>
       <c r="I94" s="5" t="b">
         <v>0</v>
       </c>
@@ -4547,7 +4636,7 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C95" s="4" t="b">
         <v>1</v>
@@ -4559,10 +4648,10 @@
         <v>1</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>154</v>
+        <v>167</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="I95" s="5" t="b">
         <v>0</v>
@@ -4573,7 +4662,7 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C96" s="4" t="b">
         <v>1</v>
@@ -4585,10 +4674,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>154</v>
+        <v>167</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="I96" s="5" t="b">
         <v>0</v>
@@ -4599,7 +4688,7 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C97" s="4" t="b">
         <v>1</v>
@@ -4611,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I97" s="5" t="b">
         <v>0</v>
@@ -4622,7 +4711,7 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C98" s="4" t="b">
         <v>1</v>
@@ -4645,7 +4734,7 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C99" s="4" t="b">
         <v>1</v>
@@ -4657,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I99" s="5" t="b">
         <v>0</v>
@@ -4671,7 +4760,7 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C100" s="4" t="b">
         <v>1</v>
@@ -4683,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I100" s="5" t="b">
         <v>0</v>
@@ -4697,7 +4786,7 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C101" s="4" t="b">
         <v>1</v>
@@ -4712,7 +4801,7 @@
         <v>18</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I101" s="5" t="b">
         <v>0</v>
@@ -4723,7 +4812,7 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C102" s="4" t="b">
         <v>1</v>
@@ -4738,10 +4827,10 @@
         <v>9</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I102" s="5" t="b">
         <v>0</v>
@@ -4752,7 +4841,7 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C103" s="4" t="b">
         <v>1</v>
@@ -4764,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="I103" s="5"/>
     </row>
@@ -4776,7 +4865,7 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C104" s="4" t="b">
         <v>1</v>
@@ -4799,10 +4888,10 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C105" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="4" t="b">
         <v>1</v>
@@ -4811,10 +4900,13 @@
         <v>1</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I105" s="5" t="b">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I105" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
@@ -4822,7 +4914,7 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C106" s="4" t="b">
         <v>1</v>
@@ -4837,7 +4929,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I106" s="5" t="b">
         <v>0</v>
@@ -4848,7 +4940,7 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C107" s="4" t="b">
         <v>1</v>
@@ -4860,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I107" s="5" t="b">
         <v>0</v>
@@ -4871,10 +4963,10 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C108" s="5" t="b">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="C108" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D108" s="4" t="b">
         <v>1</v>
@@ -4883,7 +4975,13 @@
         <v>0</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="I108" s="5" t="b">
         <v>0</v>
@@ -4894,7 +4992,7 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C109" s="4" t="b">
         <v>1</v>
@@ -4906,10 +5004,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I109" s="4" t="b">
         <v>1</v>
@@ -4920,7 +5018,7 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C110" s="4" t="b">
         <v>1</v>
@@ -4932,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I110" s="5" t="b">
         <v>0</v>
@@ -4946,10 +5044,10 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C111" s="5" t="b">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="C111" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D111" s="4" t="b">
         <v>1</v>
@@ -4958,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="I111" s="5" t="b">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="I111" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -4969,7 +5067,7 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C112" s="4" t="b">
         <v>1</v>
@@ -4984,10 +5082,10 @@
         <v>9</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="I112" s="4" t="b">
         <v>1</v>
@@ -4998,9 +5096,9 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" s="5" t="b">
+        <v>209</v>
+      </c>
+      <c r="C113" s="15" t="b">
         <v>0</v>
       </c>
       <c r="D113" s="4" t="b">
@@ -5010,10 +5108,13 @@
         <v>0</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I113" s="5" t="b">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="H113" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="I113" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -5021,7 +5122,7 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C114" s="4" t="b">
         <v>1</v>
@@ -5044,7 +5145,7 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C115" s="4" t="b">
         <v>1</v>
@@ -5056,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I115" s="5" t="b">
         <v>0</v>
@@ -5070,7 +5171,7 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C116" s="4" t="b">
         <v>1</v>
@@ -5082,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I116" s="5" t="b">
         <v>0</v>
@@ -5096,7 +5197,7 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C117" s="4" t="b">
         <v>1</v>
@@ -5111,7 +5212,7 @@
         <v>18</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I117" s="5" t="b">
         <v>0</v>
@@ -5122,10 +5223,10 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C118" s="5" t="b">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="C118" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D118" s="5" t="b">
         <v>0</v>
@@ -5134,10 +5235,13 @@
         <v>0</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="I118" s="4" t="b">
         <v>1</v>
@@ -5148,7 +5252,7 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C119" s="4" t="b">
         <v>1</v>
@@ -5171,10 +5275,10 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C120" s="5" t="b">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="C120" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D120" s="5" t="b">
         <v>0</v>
@@ -5194,7 +5298,7 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C121" s="4" t="b">
         <v>1</v>
@@ -5206,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I121" s="5" t="b">
         <v>0</v>
@@ -5217,7 +5321,7 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C122" s="4" t="b">
         <v>1</v>
@@ -5229,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I122" s="5" t="b">
         <v>0</v>
@@ -5240,7 +5344,7 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C123" s="4" t="b">
         <v>1</v>
@@ -5263,7 +5367,7 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C124" s="4" t="b">
         <v>1</v>
@@ -5275,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I124" s="5" t="b">
         <v>0</v>
@@ -5286,7 +5390,7 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C125" s="4" t="b">
         <v>1</v>
@@ -5298,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I125" s="5" t="b">
         <v>0</v>
@@ -5309,7 +5413,7 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C126" s="4" t="b">
         <v>1</v>
@@ -5321,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I126" s="5" t="b">
         <v>0</v>
@@ -5332,7 +5436,7 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C127" s="4" t="b">
         <v>1</v>
@@ -5344,13 +5448,13 @@
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="I127" s="5" t="b">
         <v>0</v>
@@ -5361,7 +5465,7 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C128" s="4" t="b">
         <v>1</v>
@@ -5376,7 +5480,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="I128" s="5" t="b">
         <v>0</v>
@@ -5387,7 +5491,7 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C129" s="4" t="b">
         <v>1</v>
@@ -5402,7 +5506,7 @@
         <v>18</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="I129" s="5" t="b">
         <v>0</v>
@@ -5413,7 +5517,7 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C130" s="4" t="b">
         <v>1</v>
@@ -5436,7 +5540,7 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C131" s="4" t="b">
         <v>1</v>
@@ -5448,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="I131" s="5" t="b">
         <v>0</v>
@@ -5462,7 +5566,7 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C132" s="4" t="b">
         <v>1</v>
@@ -5477,7 +5581,7 @@
         <v>18</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I132" s="5" t="b">
         <v>0</v>
@@ -5488,7 +5592,7 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C133" s="4" t="b">
         <v>1</v>
@@ -5503,7 +5607,7 @@
         <v>9</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I133" s="5" t="b">
         <v>0</v>
@@ -5514,7 +5618,7 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C134" s="4" t="b">
         <v>1</v>
@@ -5526,13 +5630,13 @@
         <v>1</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I134" s="5" t="b">
         <v>0</v>
@@ -5543,7 +5647,7 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C135" s="4" t="b">
         <v>1</v>
@@ -5558,7 +5662,7 @@
         <v>9</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="I135" s="5" t="b">
         <v>0</v>
@@ -5569,7 +5673,7 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C136" s="4" t="b">
         <v>1</v>
@@ -5592,7 +5696,7 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C137" s="4" t="b">
         <v>1</v>
@@ -5604,10 +5708,10 @@
         <v>1</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I137" s="5" t="b">
         <v>0</v>
@@ -5618,7 +5722,7 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C138" s="4" t="b">
         <v>1</v>
@@ -5641,7 +5745,7 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C139" s="4" t="b">
         <v>1</v>
@@ -5653,10 +5757,10 @@
         <v>1</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I139" s="5" t="b">
         <v>0</v>
@@ -5667,7 +5771,7 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C140" s="4" t="b">
         <v>1</v>
@@ -5690,7 +5794,7 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C141" s="4" t="b">
         <v>1</v>
@@ -5713,7 +5817,7 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C142" s="4" t="b">
         <v>1</v>
@@ -5728,7 +5832,7 @@
         <v>9</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I142" s="5" t="b">
         <v>0</v>
@@ -5739,7 +5843,7 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C143" s="4" t="b">
         <v>1</v>
@@ -5751,13 +5855,13 @@
         <v>1</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I143" s="5" t="b">
         <v>0</v>
@@ -5768,7 +5872,7 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C144" s="4" t="b">
         <v>1</v>
@@ -5783,7 +5887,7 @@
         <v>9</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="I144" s="5" t="b">
         <v>0</v>
@@ -5794,7 +5898,7 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C145" s="4" t="b">
         <v>1</v>
@@ -5809,7 +5913,7 @@
         <v>9</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="I145" s="5" t="b">
         <v>0</v>
@@ -5820,7 +5924,7 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C146" s="4" t="b">
         <v>1</v>
@@ -5843,7 +5947,7 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C147" s="4" t="b">
         <v>1</v>
@@ -5858,10 +5962,10 @@
         <v>9</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="I147" s="5" t="b">
         <v>0</v>
@@ -5872,7 +5976,7 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C148" s="4" t="b">
         <v>1</v>
@@ -5884,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="I148" s="5" t="b">
         <v>0</v>
@@ -5898,7 +6002,7 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C149" s="4" t="b">
         <v>1</v>
@@ -5921,7 +6025,7 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C150" s="4" t="b">
         <v>1</v>
@@ -5933,10 +6037,10 @@
         <v>1</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="I150" s="4" t="b">
         <v>1</v>
@@ -5947,7 +6051,7 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C151" s="4" t="b">
         <v>1</v>
@@ -5959,13 +6063,13 @@
         <v>1</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="I151" s="5" t="b">
         <v>0</v>
@@ -5976,7 +6080,7 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C152" s="4" t="b">
         <v>1</v>
@@ -5988,13 +6092,13 @@
         <v>0</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="I152" s="5" t="b">
         <v>0</v>
@@ -6005,10 +6109,10 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C153" s="5" t="b">
-        <v>0</v>
+        <v>281</v>
+      </c>
+      <c r="C153" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D153" s="5" t="b">
         <v>0</v>
@@ -6016,7 +6120,9 @@
       <c r="E153" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F153" s="10"/>
+      <c r="F153" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="I153" s="5" t="b">
         <v>0</v>
       </c>
@@ -6026,7 +6132,7 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C154" s="4" t="b">
         <v>1</v>
@@ -6038,13 +6144,13 @@
         <v>1</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I154" s="4" t="b">
         <v>1</v>
@@ -6055,7 +6161,7 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C155" s="4" t="b">
         <v>1</v>
@@ -6067,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I155" s="5" t="b">
         <v>0</v>
@@ -6078,18 +6184,23 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C156" s="5" t="b">
-        <v>0</v>
+        <v>285</v>
+      </c>
+      <c r="C156" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D156" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E156" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F156" s="10"/>
+      <c r="E156" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>286</v>
+      </c>
       <c r="I156" s="5" t="b">
         <v>0</v>
       </c>
@@ -6099,7 +6210,7 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C157" s="4" t="b">
         <v>1</v>
@@ -6114,7 +6225,7 @@
         <v>9</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="I157" s="5" t="b">
         <v>0</v>
@@ -6125,7 +6236,7 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C158" s="4" t="b">
         <v>1</v>
@@ -6136,7 +6247,7 @@
       <c r="E158" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F158" s="10"/>
+      <c r="F158" s="11"/>
       <c r="I158" s="5" t="b">
         <v>0</v>
       </c>
@@ -6146,7 +6257,7 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C159" s="4" t="b">
         <v>1</v>
@@ -6169,7 +6280,7 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C160" s="4" t="b">
         <v>1</v>
@@ -6181,10 +6292,10 @@
         <v>1</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="I160" s="5" t="b">
         <v>0</v>
@@ -6195,9 +6306,9 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C161" s="4" t="b">
+        <v>293</v>
+      </c>
+      <c r="C161" s="15" t="b">
         <v>0</v>
       </c>
       <c r="D161" s="5" t="b">
@@ -6210,10 +6321,10 @@
         <v>9</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="I161" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="I161" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
@@ -6221,7 +6332,7 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C162" s="4" t="b">
         <v>1</v>
@@ -6236,10 +6347,10 @@
         <v>18</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="I162" s="5" t="b">
         <v>0</v>
@@ -6250,7 +6361,7 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C163" s="4" t="b">
         <v>0</v>
@@ -6262,13 +6373,13 @@
         <v>0</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G163" s="16" t="s">
-        <v>289</v>
+        <v>299</v>
+      </c>
+      <c r="G163" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="I163" s="5" t="b">
         <v>0</v>
@@ -6279,7 +6390,7 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C164" s="4" t="b">
         <v>1</v>
@@ -6291,13 +6402,13 @@
         <v>1</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="I164" s="5" t="b">
         <v>0</v>
@@ -6308,9 +6419,9 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C165" s="5" t="b">
+        <v>305</v>
+      </c>
+      <c r="C165" s="7" t="b">
         <v>0</v>
       </c>
       <c r="D165" s="5" t="b">
@@ -6323,7 +6434,7 @@
         <v>9</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="I165" s="5" t="b">
         <v>0</v>
@@ -6334,7 +6445,7 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C166" s="4" t="b">
         <v>1</v>
@@ -6348,9 +6459,9 @@
       <c r="F166" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G166" s="15"/>
+      <c r="G166" s="16"/>
       <c r="H166" s="4" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="I166" s="5" t="b">
         <v>0</v>
@@ -6361,7 +6472,7 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C167" s="4" t="b">
         <v>1</v>
@@ -6375,9 +6486,9 @@
       <c r="F167" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G167" s="15"/>
+      <c r="G167" s="16"/>
       <c r="H167" s="4" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="I167" s="5" t="b">
         <v>0</v>
@@ -6388,7 +6499,7 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C168" s="4" t="b">
         <v>1</v>
@@ -6412,7 +6523,7 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C169" s="4" t="b">
         <v>1</v>
@@ -6424,11 +6535,11 @@
         <v>0</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="I169" s="5" t="b">
         <v>0</v>
@@ -6439,7 +6550,7 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C170" s="4" t="b">
         <v>1</v>
@@ -6451,9 +6562,9 @@
         <v>0</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="G170" s="16"/>
       <c r="I170" s="5" t="b">
         <v>0</v>
       </c>
@@ -6463,7 +6574,7 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C171" s="4" t="b">
         <v>1</v>
@@ -6477,7 +6588,7 @@
       <c r="F171" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G171" s="15"/>
+      <c r="G171" s="16"/>
       <c r="I171" s="5" t="b">
         <v>0</v>
       </c>
@@ -6487,7 +6598,7 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C172" s="4" t="b">
         <v>1</v>
@@ -6501,9 +6612,9 @@
       <c r="F172" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G172" s="15"/>
+      <c r="G172" s="16"/>
       <c r="H172" s="4" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="I172" s="5" t="b">
         <v>0</v>
@@ -6514,7 +6625,7 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C173" s="4" t="b">
         <v>1</v>
@@ -6526,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I173" s="5" t="b">
         <v>0</v>
@@ -6543,7 +6654,7 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C174" s="4" t="b">
         <v>1</v>
@@ -6555,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G174" s="4"/>
       <c r="I174" s="5" t="b">
@@ -6567,7 +6678,7 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C175" s="4" t="b">
         <v>1</v>
@@ -6579,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="I175" s="5" t="b">
         <v>0</v>
@@ -6593,7 +6704,7 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C176" s="4" t="b">
         <v>1</v>
@@ -6617,7 +6728,7 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C177" s="4" t="b">
         <v>1</v>
@@ -6641,7 +6752,7 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C178" s="4" t="b">
         <v>1</v>
@@ -6656,7 +6767,7 @@
         <v>18</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="I178" s="5" t="b">
         <v>0</v>
@@ -6666,8 +6777,8 @@
       <c r="A179" s="1">
         <v>177.0</v>
       </c>
-      <c r="B179" s="17" t="s">
-        <v>317</v>
+      <c r="B179" s="21" t="s">
+        <v>328</v>
       </c>
       <c r="C179" s="4" t="b">
         <v>1</v>
@@ -6679,10 +6790,10 @@
         <v>0</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="I179" s="4" t="b">
         <v>1</v>
@@ -6693,7 +6804,7 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C180" s="4" t="b">
         <v>1</v>
@@ -6716,10 +6827,10 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C181" s="5" t="b">
-        <v>0</v>
+        <v>332</v>
+      </c>
+      <c r="C181" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D181" s="4" t="b">
         <v>1</v>
@@ -6728,7 +6839,10 @@
         <v>0</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>322</v>
+        <v>333</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="I181" s="5" t="b">
         <v>0</v>
@@ -6739,7 +6853,7 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C182" s="4" t="b">
         <v>1</v>
@@ -6754,10 +6868,10 @@
         <v>18</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H182" s="14" t="s">
-        <v>325</v>
+        <v>336</v>
+      </c>
+      <c r="H182" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="I182" s="4" t="b">
         <v>1</v>
@@ -6768,10 +6882,10 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C183" s="5" t="b">
-        <v>0</v>
+        <v>338</v>
+      </c>
+      <c r="C183" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D183" s="5" t="b">
         <v>0</v>
@@ -6779,7 +6893,12 @@
       <c r="E183" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F183" s="10"/>
+      <c r="F183" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
       </c>
@@ -6789,18 +6908,26 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C184" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D184" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E184" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F184" s="10"/>
+        <v>340</v>
+      </c>
+      <c r="C184" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D184" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H184" s="18" t="s">
+        <v>342</v>
+      </c>
       <c r="I184" s="5" t="b">
         <v>0</v>
       </c>
@@ -6810,18 +6937,23 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C185" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D185" s="5" t="b">
-        <v>0</v>
+        <v>343</v>
+      </c>
+      <c r="C185" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D185" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="E185" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F185" s="10"/>
+      <c r="F185" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="I185" s="5" t="b">
         <v>0</v>
       </c>
@@ -6831,18 +6963,20 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F186" s="10"/>
+        <v>346</v>
+      </c>
+      <c r="C186" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="I186" s="5" t="b">
         <v>0</v>
       </c>
@@ -6852,7 +6986,7 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C187" s="4" t="b">
         <v>1</v>
@@ -6867,7 +7001,7 @@
         <v>9</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="I187" s="5" t="b">
         <v>0</v>
@@ -6878,7 +7012,7 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C188" s="4" t="b">
         <v>1</v>
@@ -6890,13 +7024,13 @@
         <v>1</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G188" s="18" t="s">
-        <v>333</v>
+        <v>35</v>
+      </c>
+      <c r="G188" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="I188" s="5" t="b">
         <v>0</v>
@@ -6907,23 +7041,21 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C189" s="5" t="b">
-        <v>0</v>
+        <v>353</v>
+      </c>
+      <c r="C189" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D189" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E189" s="5" t="b">
-        <v>0</v>
+      <c r="E189" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G189" s="4" t="s">
-        <v>336</v>
-      </c>
+      <c r="G189" s="17"/>
       <c r="I189" s="5" t="b">
         <v>0</v>
       </c>
@@ -6933,7 +7065,7 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="C190" s="4" t="b">
         <v>1</v>
@@ -6948,7 +7080,7 @@
         <v>18</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>0</v>
@@ -6959,7 +7091,7 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C191" s="5" t="b">
         <v>0</v>
@@ -6973,8 +7105,8 @@
       <c r="F191" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G191" s="16" t="s">
-        <v>340</v>
+      <c r="G191" s="24" t="s">
+        <v>357</v>
       </c>
       <c r="I191" s="5" t="b">
         <v>0</v>
@@ -6985,7 +7117,7 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C192" s="4" t="b">
         <v>1</v>
@@ -6997,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="I192" s="5" t="b">
         <v>0</v>
@@ -7011,7 +7143,7 @@
         <v>191.0</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C193" s="5" t="b">
         <v>0</v>
@@ -7023,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="G193" s="16" t="s">
-        <v>345</v>
+        <v>361</v>
+      </c>
+      <c r="G193" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="I193" s="5" t="b">
         <v>0</v>
@@ -7040,19 +7172,25 @@
         <v>192.0</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C194" s="5" t="b">
-        <v>0</v>
+        <v>364</v>
+      </c>
+      <c r="C194" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D194" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E194" s="5" t="b">
-        <v>0</v>
+      <c r="E194" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="I194" s="5" t="b">
         <v>0</v>
@@ -7063,7 +7201,7 @@
         <v>193.0</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C195" s="4" t="b">
         <v>1</v>
@@ -7075,10 +7213,10 @@
         <v>0</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="I195" s="5" t="b">
         <v>0</v>
@@ -7089,7 +7227,7 @@
         <v>194.0</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C196" s="4" t="b">
         <v>1</v>
@@ -7101,10 +7239,10 @@
         <v>0</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I196" s="5" t="b">
         <v>0</v>
@@ -7115,7 +7253,7 @@
         <v>195.0</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C197" s="4" t="b">
         <v>1</v>
@@ -7138,7 +7276,7 @@
         <v>196.0</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C198" s="4" t="b">
         <v>1</v>
@@ -7164,7 +7302,7 @@
         <v>197.0</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C199" s="4" t="b">
         <v>1</v>
@@ -7187,7 +7325,7 @@
         <v>198.0</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C200" s="4" t="b">
         <v>1</v>
@@ -7199,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I200" s="5" t="b">
         <v>0</v>
@@ -7210,7 +7348,7 @@
         <v>199.0</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="C201" s="4" t="b">
         <v>1</v>
@@ -7222,13 +7360,13 @@
         <v>1</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H201" s="12" t="s">
-        <v>358</v>
+        <v>376</v>
+      </c>
+      <c r="H201" s="13" t="s">
+        <v>377</v>
       </c>
       <c r="I201" s="5" t="b">
         <v>0</v>
@@ -7239,7 +7377,7 @@
         <v>200.0</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C202" s="4" t="b">
         <v>1</v>
@@ -7251,10 +7389,10 @@
         <v>0</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="I202" s="5" t="b">
         <v>0</v>
@@ -7265,7 +7403,7 @@
         <v>201.0</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C203" s="4" t="b">
         <v>1</v>
@@ -7280,7 +7418,7 @@
         <v>9</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="I203" s="5" t="b">
         <v>0</v>
@@ -7291,7 +7429,7 @@
         <v>202.0</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C204" s="4" t="b">
         <v>1</v>
@@ -7303,13 +7441,13 @@
         <v>1</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="I204" s="5" t="b">
         <v>0</v>
@@ -7320,7 +7458,7 @@
         <v>203.0</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="C205" s="4" t="b">
         <v>1</v>
@@ -7332,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H205" s="12" t="s">
-        <v>370</v>
+        <v>388</v>
+      </c>
+      <c r="H205" s="13" t="s">
+        <v>389</v>
       </c>
       <c r="I205" s="5" t="b">
         <v>0</v>
@@ -7349,7 +7487,7 @@
         <v>204.0</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C206" s="5" t="b">
         <v>0</v>
@@ -7361,10 +7499,10 @@
         <v>1</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="I206" s="4" t="b">
         <v>0</v>
@@ -7375,7 +7513,7 @@
         <v>205.0</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C207" s="5" t="b">
         <v>0</v>
@@ -7386,9 +7524,14 @@
       <c r="E207" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F207" s="10"/>
-      <c r="I207" s="5" t="b">
-        <v>0</v>
+      <c r="F207" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I207" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
@@ -7396,7 +7539,7 @@
         <v>206.0</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="C208" s="5" t="b">
         <v>0</v>
@@ -7407,7 +7550,7 @@
       <c r="E208" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F208" s="10"/>
+      <c r="F208" s="11"/>
       <c r="I208" s="5" t="b">
         <v>0</v>
       </c>
@@ -7417,7 +7560,7 @@
         <v>207.0</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="C209" s="5" t="b">
         <v>0</v>
@@ -7428,7 +7571,7 @@
       <c r="E209" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F209" s="10"/>
+      <c r="F209" s="11"/>
       <c r="I209" s="5" t="b">
         <v>0</v>
       </c>
@@ -7438,7 +7581,7 @@
         <v>208.0</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="C210" s="4" t="b">
         <v>1</v>
@@ -7450,13 +7593,13 @@
         <v>1</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="I210" s="4" t="b">
         <v>1</v>
@@ -7467,10 +7610,10 @@
         <v>209.0</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C211" s="5" t="b">
-        <v>0</v>
+        <v>402</v>
+      </c>
+      <c r="C211" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D211" s="5" t="b">
         <v>0</v>
@@ -7481,11 +7624,12 @@
       <c r="F211" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H211" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="I211" s="5" t="b">
-        <v>0</v>
+      <c r="G211" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H211" s="15"/>
+      <c r="I211" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
@@ -7493,7 +7637,7 @@
         <v>210.0</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="C212" s="4" t="b">
         <v>1</v>
@@ -7505,10 +7649,10 @@
         <v>0</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I212" s="5" t="b">
         <v>0</v>
@@ -7519,7 +7663,7 @@
         <v>211.0</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="C213" s="4" t="b">
         <v>1</v>
@@ -7531,10 +7675,10 @@
         <v>0</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="I213" s="5" t="b">
         <v>0</v>
@@ -7545,7 +7689,7 @@
         <v>212.0</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C214" s="4" t="b">
         <v>1</v>
@@ -7557,10 +7701,10 @@
         <v>0</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I214" s="5" t="b">
         <v>0</v>
@@ -7571,7 +7715,7 @@
         <v>213.0</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="C215" s="4" t="b">
         <v>1</v>
@@ -7583,10 +7727,10 @@
         <v>0</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I215" s="5" t="b">
         <v>0</v>
@@ -7597,7 +7741,7 @@
         <v>214.0</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="C216" s="4" t="b">
         <v>1</v>
@@ -7620,7 +7764,7 @@
         <v>215.0</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="C217" s="4" t="b">
         <v>1</v>
@@ -7632,10 +7776,10 @@
         <v>0</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="I217" s="5" t="b">
         <v>0</v>
@@ -7646,7 +7790,7 @@
         <v>216.0</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="C218" s="4" t="b">
         <v>1</v>
@@ -7658,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I218" s="5" t="b">
         <v>0</v>
@@ -7669,7 +7813,7 @@
         <v>217.0</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="C219" s="4" t="b">
         <v>1</v>
@@ -7681,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I219" s="5" t="b">
         <v>0</v>
@@ -7692,7 +7836,7 @@
         <v>218.0</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="C220" s="4" t="b">
         <v>1</v>
@@ -7707,7 +7851,7 @@
         <v>9</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="I220" s="5" t="b">
         <v>0</v>
@@ -7718,7 +7862,7 @@
         <v>219.0</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="C221" s="4" t="b">
         <v>1</v>
@@ -7730,13 +7874,13 @@
         <v>0</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="I221" s="5" t="b">
         <v>0</v>
@@ -7747,7 +7891,7 @@
         <v>220.0</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C222" s="4" t="b">
         <v>1</v>
@@ -7762,10 +7906,10 @@
         <v>18</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="I222" s="5" t="b">
         <v>0</v>
@@ -7776,7 +7920,7 @@
         <v>221.0</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="C223" s="4" t="b">
         <v>1</v>
@@ -7791,10 +7935,10 @@
         <v>14</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="I223" s="5" t="b">
         <v>0</v>
@@ -7805,7 +7949,7 @@
         <v>222.0</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C224" s="4" t="b">
         <v>1</v>
@@ -7820,10 +7964,10 @@
         <v>14</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="I224" s="5" t="b">
         <v>0</v>
@@ -7834,7 +7978,7 @@
         <v>223.0</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="C225" s="4" t="b">
         <v>1</v>
@@ -7846,10 +7990,10 @@
         <v>1</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="I225" s="5" t="b">
         <v>0</v>
@@ -7860,28 +8004,28 @@
         <v>224.0</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="C226" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E226" s="5" t="b">
-        <v>0</v>
+      <c r="E226" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="I226" s="5" t="b">
-        <v>0</v>
+        <v>430</v>
+      </c>
+      <c r="I226" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
@@ -7889,7 +8033,7 @@
         <v>225.0</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="C227" s="4" t="b">
         <v>1</v>
@@ -7901,10 +8045,10 @@
         <v>0</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="I227" s="5" t="b">
         <v>0</v>
@@ -7915,7 +8059,7 @@
         <v>226.0</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="C228" s="4" t="b">
         <v>1</v>
@@ -7926,7 +8070,7 @@
       <c r="E228" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F228" s="10"/>
+      <c r="F228" s="11"/>
       <c r="I228" s="5" t="b">
         <v>0</v>
       </c>
@@ -7936,7 +8080,7 @@
         <v>227.0</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="C229" s="4" t="b">
         <v>1</v>
@@ -7948,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="I229" s="5" t="b">
         <v>0</v>
@@ -7962,7 +8106,7 @@
         <v>228.0</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="C230" s="4" t="b">
         <v>1</v>
@@ -7974,10 +8118,10 @@
         <v>0</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="I230" s="5" t="b">
         <v>0</v>
@@ -7988,7 +8132,7 @@
         <v>229.0</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="C231" s="4" t="b">
         <v>1</v>
@@ -8002,11 +8146,11 @@
       <c r="F231" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G231" s="18" t="s">
-        <v>397</v>
+      <c r="G231" s="23" t="s">
+        <v>418</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="I231" s="5" t="b">
         <v>0</v>
@@ -8017,7 +8161,7 @@
         <v>230.0</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="C232" s="4" t="b">
         <v>1</v>
@@ -8029,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I232" s="5" t="b">
         <v>0</v>
@@ -8040,10 +8184,10 @@
         <v>231.0</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C233" s="5" t="b">
-        <v>0</v>
+        <v>442</v>
+      </c>
+      <c r="C233" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D233" s="4" t="b">
         <v>1</v>
@@ -8052,13 +8196,11 @@
         <v>0</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G233" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="H233" s="14" t="s">
-        <v>382</v>
+        <v>443</v>
+      </c>
+      <c r="G233" s="15"/>
+      <c r="H233" s="23" t="s">
+        <v>444</v>
       </c>
       <c r="I233" s="4" t="b">
         <v>1</v>
@@ -8069,7 +8211,7 @@
         <v>232.0</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="C234" s="4" t="b">
         <v>1</v>
@@ -8081,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I234" s="5" t="b">
         <v>0</v>
@@ -8092,7 +8234,7 @@
         <v>233.0</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="C235" s="4" t="b">
         <v>1</v>
@@ -8104,10 +8246,10 @@
         <v>0</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="I235" s="5" t="b">
         <v>0</v>
@@ -8118,7 +8260,7 @@
         <v>234.0</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="C236" s="4" t="b">
         <v>1</v>
@@ -8130,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I236" s="5" t="b">
         <v>0</v>
@@ -8141,7 +8283,7 @@
         <v>235.0</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="C237" s="4" t="b">
         <v>1</v>
@@ -8153,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="I237" s="5" t="b">
         <v>0</v>
@@ -8170,7 +8312,7 @@
         <v>236.0</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="C238" s="5" t="b">
         <v>0</v>
@@ -8182,10 +8324,10 @@
         <v>1</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G238" s="16" t="s">
-        <v>432</v>
+        <v>452</v>
+      </c>
+      <c r="G238" s="20" t="s">
+        <v>453</v>
       </c>
       <c r="I238" s="5" t="b">
         <v>0</v>
